--- a/parcel.xlsx
+++ b/parcel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\borders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2140798-6F06-4576-BB2D-743139B8D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F5DA4-D7ED-4970-90F7-9423EDE05CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC969309-A94C-4F88-B14E-543FEF1BF85D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa3" sheetId="1" r:id="rId1"/>
+    <sheet name="parcel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
